--- a/CASUAL/LA SP-VMO/DE SAGUN, NANCY.xlsx
+++ b/CASUAL/LA SP-VMO/DE SAGUN, NANCY.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA SP-VMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA SP-VMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE83FAF-08AB-4247-A384-70C16FC67D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="112">
   <si>
     <t>PERIOD</t>
   </si>
@@ -378,7 +379,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -757,17 +758,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -777,6 +775,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1307,7 +1308,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1351,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1414,7 +1415,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1474,7 +1475,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1540,7 +1541,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1603,7 +1604,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1701,7 +1702,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1760,7 +1761,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1825,7 +1826,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1868,7 +1869,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1943,7 +1944,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2129,7 +2130,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2195,7 +2196,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2253,7 +2254,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2319,7 +2320,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2375,7 +2376,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2450,7 +2451,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2493,7 +2494,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2559,7 +2560,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2615,7 +2616,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2694,7 +2695,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2711,25 +2712,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K136" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K137" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2741,25 +2742,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K76" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K76" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3066,7 +3067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3076,7 +3077,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3084,34 +3085,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M136"/>
+  <dimension ref="A2:M137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A89" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A101" activePane="bottomLeft"/>
       <selection activeCell="M9" sqref="M9"/>
-      <selection pane="bottomLeft" activeCell="K106" sqref="K106"/>
+      <selection pane="bottomLeft" activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3123,16 +3124,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3141,16 +3142,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3161,18 +3162,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3180,7 +3181,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3193,24 +3194,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3245,7 +3246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3254,7 +3255,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>9.2060000000000173</v>
+        <v>10.456000000000017</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3264,13 +3265,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>46.459000000000003</v>
+        <v>46.709000000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
       <c r="M9" s="46"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3292,7 +3293,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3305,7 +3306,7 @@
       <c r="D11" s="39"/>
       <c r="E11" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>24.831000000000017</v>
+        <v>26.081000000000017</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="13">
@@ -3321,7 +3322,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3341,7 +3342,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3361,7 +3362,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="49"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3381,7 +3382,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3407,7 +3408,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -3427,7 +3428,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3447,7 +3448,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3467,7 +3468,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3491,7 +3492,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>43</v>
@@ -3513,7 +3514,7 @@
         <v>43371</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43374</v>
       </c>
@@ -3539,7 +3540,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43405</v>
       </c>
@@ -3565,7 +3566,7 @@
         <v>43412</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43435</v>
       </c>
@@ -3585,7 +3586,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="48" t="s">
         <v>54</v>
       </c>
@@ -3603,7 +3604,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43466</v>
       </c>
@@ -3629,7 +3630,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43497</v>
       </c>
@@ -3655,7 +3656,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43525</v>
       </c>
@@ -3681,7 +3682,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43556</v>
       </c>
@@ -3701,7 +3702,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43586</v>
       </c>
@@ -3727,7 +3728,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43617</v>
       </c>
@@ -3753,7 +3754,7 @@
         <v>43640</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43647</v>
       </c>
@@ -3773,7 +3774,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43678</v>
       </c>
@@ -3799,7 +3800,7 @@
         <v>43699</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43709</v>
       </c>
@@ -3819,7 +3820,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43739</v>
       </c>
@@ -3845,7 +3846,7 @@
         <v>43767</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43770</v>
       </c>
@@ -3871,7 +3872,7 @@
         <v>43790</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>52</v>
@@ -3893,7 +3894,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43800</v>
       </c>
@@ -3919,7 +3920,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>49</v>
@@ -3941,7 +3942,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="48" t="s">
         <v>67</v>
       </c>
@@ -3959,7 +3960,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43831</v>
       </c>
@@ -3979,7 +3980,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="49"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43862</v>
       </c>
@@ -3999,7 +4000,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43891</v>
       </c>
@@ -4019,7 +4020,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43922</v>
       </c>
@@ -4039,7 +4040,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43952</v>
       </c>
@@ -4059,7 +4060,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>43983</v>
       </c>
@@ -4079,7 +4080,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="49"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44013</v>
       </c>
@@ -4099,7 +4100,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44057</v>
       </c>
@@ -4119,7 +4120,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44064</v>
       </c>
@@ -4139,7 +4140,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="49"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44075</v>
       </c>
@@ -4159,7 +4160,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44105</v>
       </c>
@@ -4185,7 +4186,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>75</v>
@@ -4205,7 +4206,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>76</v>
@@ -4227,7 +4228,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>44</v>
@@ -4249,7 +4250,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>51</v>
@@ -4271,7 +4272,7 @@
         <v>44025</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44136</v>
       </c>
@@ -4291,7 +4292,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44166</v>
       </c>
@@ -4311,7 +4312,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="48" t="s">
         <v>80</v>
       </c>
@@ -4329,7 +4330,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44197</v>
       </c>
@@ -4349,7 +4350,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44228</v>
       </c>
@@ -4369,7 +4370,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44256</v>
       </c>
@@ -4389,7 +4390,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44287</v>
       </c>
@@ -4409,7 +4410,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44317</v>
       </c>
@@ -4429,7 +4430,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44348</v>
       </c>
@@ -4449,7 +4450,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44378</v>
       </c>
@@ -4469,7 +4470,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44409</v>
       </c>
@@ -4489,7 +4490,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44440</v>
       </c>
@@ -4509,7 +4510,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44470</v>
       </c>
@@ -4529,7 +4530,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44501</v>
       </c>
@@ -4549,7 +4550,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44531</v>
       </c>
@@ -4573,7 +4574,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="48" t="s">
         <v>82</v>
       </c>
@@ -4591,7 +4592,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44562</v>
       </c>
@@ -4611,7 +4612,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44593</v>
       </c>
@@ -4631,7 +4632,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44621</v>
       </c>
@@ -4655,7 +4656,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44652</v>
       </c>
@@ -4681,7 +4682,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44682</v>
       </c>
@@ -4707,7 +4708,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>105</v>
@@ -4727,7 +4728,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44713</v>
       </c>
@@ -4753,7 +4754,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>104</v>
@@ -4773,7 +4774,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44743</v>
       </c>
@@ -4799,7 +4800,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>101</v>
@@ -4819,7 +4820,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="49"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>44774</v>
       </c>
@@ -4839,7 +4840,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>44805</v>
       </c>
@@ -4865,7 +4866,7 @@
         <v>44832</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>99</v>
@@ -4885,7 +4886,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="49"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>44835</v>
       </c>
@@ -4909,7 +4910,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="49"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>44866</v>
       </c>
@@ -4935,7 +4936,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>97</v>
@@ -4955,7 +4956,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>44896</v>
       </c>
@@ -4981,7 +4982,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>96</v>
@@ -5001,7 +5002,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="49"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="48" t="s">
         <v>89</v>
       </c>
@@ -5019,7 +5020,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>44927</v>
       </c>
@@ -5039,7 +5040,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <f>EDATE(A90,1)</f>
         <v>44958</v>
@@ -5060,7 +5061,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f t="shared" ref="A92:A106" si="0">EDATE(A91,1)</f>
         <v>44986</v>
@@ -5087,7 +5088,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <f>EDATE(A92,1)</f>
         <v>45017</v>
@@ -5112,7 +5113,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <f t="shared" si="0"/>
         <v>45047</v>
@@ -5139,7 +5140,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>51</v>
@@ -5161,7 +5162,7 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f>EDATE(A94,1)</f>
         <v>45078</v>
@@ -5188,7 +5189,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f t="shared" si="0"/>
         <v>45108</v>
@@ -5215,7 +5216,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>43</v>
@@ -5237,7 +5238,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>51</v>
@@ -5259,7 +5260,7 @@
         <v>45133</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <f>EDATE(A97,1)</f>
         <v>45139</v>
@@ -5286,7 +5287,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>51</v>
@@ -5308,7 +5309,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>51</v>
@@ -5330,7 +5331,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <f>EDATE(A100,1)</f>
         <v>45170</v>
@@ -5351,7 +5352,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <f t="shared" si="0"/>
         <v>45200</v>
@@ -5372,7 +5373,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <f t="shared" si="0"/>
         <v>45231</v>
@@ -5399,7 +5400,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <f t="shared" si="0"/>
         <v>45261</v>
@@ -5407,15 +5408,17 @@
       <c r="B106" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C106" s="13"/>
+      <c r="C106" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D106" s="39">
         <v>5</v>
       </c>
       <c r="E106" s="9"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G106" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H106" s="39"/>
       <c r="I106" s="9"/>
@@ -5424,42 +5427,48 @@
         <v>111</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B107" s="20"/>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="40"/>
+      <c r="B107" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
       <c r="E107" s="9"/>
       <c r="F107" s="20"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="39"/>
+      <c r="G107" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H107" s="39">
+        <v>1</v>
+      </c>
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
-      <c r="K107" s="20"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="40">
-        <f>EDATE(A106,1)</f>
-        <v>45292</v>
+      <c r="K107" s="49">
+        <v>45280</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="48" t="s">
+        <v>94</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
       <c r="E108" s="9"/>
       <c r="F108" s="20"/>
-      <c r="G108" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G108" s="13"/>
       <c r="H108" s="39"/>
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="40">
+        <f>EDATE(A106,1)</f>
+        <v>45292</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -5474,7 +5483,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5490,7 +5499,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5506,7 +5515,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5522,7 +5531,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5538,7 +5547,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5554,7 +5563,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5570,7 +5579,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5586,7 +5595,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5602,7 +5611,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5618,7 +5627,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5634,7 +5643,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5650,7 +5659,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5666,7 +5675,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5682,7 +5691,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5698,7 +5707,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5714,7 +5723,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5730,7 +5739,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5746,7 +5755,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5762,7 +5771,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5778,7 +5787,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5794,7 +5803,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5810,7 +5819,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5826,7 +5835,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5842,7 +5851,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5858,7 +5867,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5874,7 +5883,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5890,41 +5899,57 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="41"/>
-      <c r="B136" s="15"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="43"/>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="40"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="39"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H136" s="43"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="39"/>
       <c r="I136" s="9"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="15"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="20"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="41"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="42"/>
+      <c r="D137" s="43"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="43"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5947,34 +5972,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K76"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A16" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A16" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5986,16 +6011,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6006,16 +6031,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6026,18 +6051,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6045,7 +6070,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6058,24 +6083,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6110,7 +6135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6134,7 +6159,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6156,7 +6181,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6178,7 +6203,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43160</v>
       </c>
@@ -6202,7 +6227,7 @@
         <v>43175</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43191</v>
       </c>
@@ -6224,7 +6249,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43405</v>
       </c>
@@ -6248,7 +6273,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="48" t="s">
         <v>54</v>
       </c>
@@ -6266,7 +6291,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43466</v>
       </c>
@@ -6290,7 +6315,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43497</v>
       </c>
@@ -6314,7 +6339,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43647</v>
       </c>
@@ -6338,7 +6363,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="48" t="s">
         <v>67</v>
       </c>
@@ -6356,7 +6381,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43831</v>
       </c>
@@ -6380,7 +6405,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>51</v>
@@ -6402,7 +6427,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43862</v>
       </c>
@@ -6424,7 +6449,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>60</v>
@@ -6446,7 +6471,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43983</v>
       </c>
@@ -6470,7 +6495,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44013</v>
       </c>
@@ -6494,7 +6519,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>44057</v>
       </c>
@@ -6514,7 +6539,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>44064</v>
       </c>
@@ -6538,7 +6563,7 @@
         <v>44069</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>44105</v>
       </c>
@@ -6562,7 +6587,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>75</v>
@@ -6582,7 +6607,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>44</v>
@@ -6604,7 +6629,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>51</v>
@@ -6626,7 +6651,7 @@
         <v>44025</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="48" t="s">
         <v>82</v>
       </c>
@@ -6644,7 +6669,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>44805</v>
       </c>
@@ -6668,7 +6693,7 @@
         <v>44832</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>44835</v>
       </c>
@@ -6692,7 +6717,7 @@
         <v>44853</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6708,7 +6733,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6724,7 +6749,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6740,7 +6765,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6756,7 +6781,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6772,7 +6797,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6788,7 +6813,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6804,7 +6829,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6820,7 +6845,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6836,7 +6861,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6852,7 +6877,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6868,7 +6893,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6884,7 +6909,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6900,7 +6925,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6916,7 +6941,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6932,7 +6957,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6948,7 +6973,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6964,7 +6989,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6980,7 +7005,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6996,7 +7021,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -7012,7 +7037,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -7028,7 +7053,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -7044,7 +7069,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -7060,7 +7085,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7076,7 +7101,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7092,7 +7117,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7108,7 +7133,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7124,7 +7149,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7140,7 +7165,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7156,7 +7181,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7172,7 +7197,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7188,7 +7213,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7204,7 +7229,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7220,7 +7245,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7236,7 +7261,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7252,7 +7277,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7268,7 +7293,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7284,7 +7309,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7300,7 +7325,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7316,7 +7341,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7332,7 +7357,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7348,7 +7373,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="41"/>
       <c r="B76" s="15"/>
       <c r="C76" s="42"/>
@@ -7379,10 +7404,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7405,28 +7430,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -7439,7 +7464,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7468,7 +7493,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>15.625</v>
       </c>
@@ -7496,17 +7521,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7527,7 +7552,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7554,7 +7579,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7580,7 +7605,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7606,7 +7631,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7632,7 +7657,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7658,7 +7683,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7684,7 +7709,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7710,7 +7735,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7736,7 +7761,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7756,7 +7781,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7776,7 +7801,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7796,7 +7821,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7817,7 +7842,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7838,7 +7863,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7859,7 +7884,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7880,7 +7905,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7901,7 +7926,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7922,7 +7947,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7943,7 +7968,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7964,7 +7989,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7985,7 +8010,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8006,7 +8031,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8027,7 +8052,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8048,7 +8073,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8069,7 +8094,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8090,7 +8115,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8111,7 +8136,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8132,7 +8157,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8153,7 +8178,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8174,7 +8199,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8195,7 +8220,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8216,7 +8241,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8225,7 +8250,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8234,7 +8259,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8243,7 +8268,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8252,7 +8277,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8261,7 +8286,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8270,7 +8295,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8279,7 +8304,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8288,7 +8313,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8297,7 +8322,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8306,7 +8331,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8315,7 +8340,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8324,7 +8349,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8333,7 +8358,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8342,7 +8367,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8351,7 +8376,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8360,7 +8385,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8369,7 +8394,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8378,7 +8403,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8387,7 +8412,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8396,7 +8421,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8405,7 +8430,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8414,7 +8439,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8423,7 +8448,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8432,7 +8457,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8441,7 +8466,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8450,7 +8475,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8459,7 +8484,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8468,7 +8493,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8477,7 +8502,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/CASUAL/LA SP-VMO/DE SAGUN, NANCY.xlsx
+++ b/CASUAL/LA SP-VMO/DE SAGUN, NANCY.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA SP-VMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA SP-VMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE83FAF-08AB-4247-A384-70C16FC67D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -379,7 +378,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -758,14 +757,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -775,9 +777,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1308,7 +1307,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1351,7 +1350,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1415,7 +1414,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1475,7 +1474,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1541,7 +1540,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,7 +1603,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1702,7 +1701,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1761,7 +1760,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1826,7 +1825,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1869,7 +1868,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1944,7 +1943,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2130,7 +2129,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2196,7 +2195,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2254,7 +2253,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2320,7 +2319,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2376,7 +2375,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2451,7 +2450,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2494,7 +2493,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2560,7 +2559,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2616,7 +2615,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2695,7 +2694,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2712,25 +2711,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K137" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K137" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2742,25 +2741,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K76" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K76" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3067,7 +3066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3077,7 +3076,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3085,34 +3084,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:M137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A101" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A65" activePane="bottomLeft"/>
       <selection activeCell="M9" sqref="M9"/>
-      <selection pane="bottomLeft" activeCell="E108" sqref="E108"/>
+      <selection pane="bottomLeft" activeCell="O68" sqref="O68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3124,16 +3123,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3142,16 +3141,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3162,18 +3161,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3181,7 +3180,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3194,24 +3193,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3246,7 +3245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3271,7 +3270,7 @@
       <c r="K9" s="20"/>
       <c r="M9" s="46"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3293,7 +3292,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3322,7 +3321,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3342,7 +3341,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3362,7 +3361,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="49"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3382,7 +3381,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3408,7 +3407,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -3428,7 +3427,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3448,7 +3447,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3468,7 +3467,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3492,7 +3491,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>43</v>
@@ -3514,7 +3513,7 @@
         <v>43371</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43374</v>
       </c>
@@ -3540,7 +3539,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43405</v>
       </c>
@@ -3566,7 +3565,7 @@
         <v>43412</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43435</v>
       </c>
@@ -3586,7 +3585,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
         <v>54</v>
       </c>
@@ -3604,7 +3603,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43466</v>
       </c>
@@ -3630,7 +3629,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43497</v>
       </c>
@@ -3656,7 +3655,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43525</v>
       </c>
@@ -3682,7 +3681,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43556</v>
       </c>
@@ -3702,7 +3701,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43586</v>
       </c>
@@ -3728,7 +3727,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43617</v>
       </c>
@@ -3754,7 +3753,7 @@
         <v>43640</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43647</v>
       </c>
@@ -3774,7 +3773,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43678</v>
       </c>
@@ -3800,7 +3799,7 @@
         <v>43699</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43709</v>
       </c>
@@ -3820,7 +3819,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43739</v>
       </c>
@@ -3846,7 +3845,7 @@
         <v>43767</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43770</v>
       </c>
@@ -3872,7 +3871,7 @@
         <v>43790</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>52</v>
@@ -3894,7 +3893,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43800</v>
       </c>
@@ -3920,7 +3919,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>49</v>
@@ -3942,7 +3941,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
         <v>67</v>
       </c>
@@ -3960,7 +3959,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43831</v>
       </c>
@@ -3980,7 +3979,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="49"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43862</v>
       </c>
@@ -4000,7 +3999,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43891</v>
       </c>
@@ -4020,7 +4019,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43922</v>
       </c>
@@ -4040,7 +4039,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43952</v>
       </c>
@@ -4060,7 +4059,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43983</v>
       </c>
@@ -4080,7 +4079,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="49"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44013</v>
       </c>
@@ -4100,7 +4099,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44057</v>
       </c>
@@ -4120,7 +4119,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44064</v>
       </c>
@@ -4140,7 +4139,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="49"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44075</v>
       </c>
@@ -4160,7 +4159,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44105</v>
       </c>
@@ -4186,7 +4185,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>75</v>
@@ -4206,7 +4205,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>76</v>
@@ -4228,7 +4227,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>44</v>
@@ -4250,7 +4249,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>51</v>
@@ -4272,7 +4271,7 @@
         <v>44025</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44136</v>
       </c>
@@ -4292,7 +4291,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44166</v>
       </c>
@@ -4312,7 +4311,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
         <v>80</v>
       </c>
@@ -4330,7 +4329,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44197</v>
       </c>
@@ -4350,7 +4349,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44228</v>
       </c>
@@ -4370,7 +4369,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44256</v>
       </c>
@@ -4390,7 +4389,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44287</v>
       </c>
@@ -4410,7 +4409,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44317</v>
       </c>
@@ -4430,7 +4429,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44348</v>
       </c>
@@ -4450,7 +4449,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44378</v>
       </c>
@@ -4470,7 +4469,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44409</v>
       </c>
@@ -4490,7 +4489,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44440</v>
       </c>
@@ -4510,7 +4509,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44470</v>
       </c>
@@ -4530,7 +4529,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44501</v>
       </c>
@@ -4550,7 +4549,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44531</v>
       </c>
@@ -4574,7 +4573,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
         <v>82</v>
       </c>
@@ -4592,7 +4591,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44562</v>
       </c>
@@ -4612,7 +4611,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44593</v>
       </c>
@@ -4632,7 +4631,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44621</v>
       </c>
@@ -4656,7 +4655,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44652</v>
       </c>
@@ -4682,7 +4681,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44682</v>
       </c>
@@ -4708,7 +4707,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>105</v>
@@ -4728,7 +4727,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44713</v>
       </c>
@@ -4754,7 +4753,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>104</v>
@@ -4774,7 +4773,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44743</v>
       </c>
@@ -4800,7 +4799,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>101</v>
@@ -4820,7 +4819,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="49"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44774</v>
       </c>
@@ -4840,7 +4839,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44805</v>
       </c>
@@ -4866,7 +4865,7 @@
         <v>44832</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>99</v>
@@ -4886,7 +4885,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="49"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44835</v>
       </c>
@@ -4910,7 +4909,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="49"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>44866</v>
       </c>
@@ -4936,7 +4935,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>97</v>
@@ -4956,7 +4955,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>44896</v>
       </c>
@@ -4982,7 +4981,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>96</v>
@@ -5002,7 +5001,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="49"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="48" t="s">
         <v>89</v>
       </c>
@@ -5020,7 +5019,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>44927</v>
       </c>
@@ -5040,7 +5039,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f>EDATE(A90,1)</f>
         <v>44958</v>
@@ -5061,7 +5060,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f t="shared" ref="A92:A106" si="0">EDATE(A91,1)</f>
         <v>44986</v>
@@ -5088,7 +5087,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f>EDATE(A92,1)</f>
         <v>45017</v>
@@ -5113,7 +5112,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f t="shared" si="0"/>
         <v>45047</v>
@@ -5140,7 +5139,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>51</v>
@@ -5162,7 +5161,7 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f>EDATE(A94,1)</f>
         <v>45078</v>
@@ -5189,7 +5188,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="0"/>
         <v>45108</v>
@@ -5216,7 +5215,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>43</v>
@@ -5238,7 +5237,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>51</v>
@@ -5260,7 +5259,7 @@
         <v>45133</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f>EDATE(A97,1)</f>
         <v>45139</v>
@@ -5287,7 +5286,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>51</v>
@@ -5309,7 +5308,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>51</v>
@@ -5331,7 +5330,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f>EDATE(A100,1)</f>
         <v>45170</v>
@@ -5352,7 +5351,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f t="shared" si="0"/>
         <v>45200</v>
@@ -5373,7 +5372,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f t="shared" si="0"/>
         <v>45231</v>
@@ -5400,7 +5399,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f t="shared" si="0"/>
         <v>45261</v>
@@ -5427,7 +5426,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>51</v>
@@ -5449,7 +5448,7 @@
         <v>45280</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="48" t="s">
         <v>94</v>
       </c>
@@ -5464,7 +5463,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f>EDATE(A106,1)</f>
         <v>45292</v>
@@ -5483,7 +5482,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5499,7 +5498,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5515,7 +5514,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5531,7 +5530,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5547,7 +5546,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5563,7 +5562,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5579,7 +5578,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5595,7 +5594,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5611,7 +5610,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5627,7 +5626,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5643,7 +5642,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5659,7 +5658,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5675,7 +5674,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5691,7 +5690,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5707,7 +5706,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5723,7 +5722,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5739,7 +5738,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5755,7 +5754,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5771,7 +5770,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5787,7 +5786,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5803,7 +5802,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5819,7 +5818,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5835,7 +5834,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5851,7 +5850,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5867,7 +5866,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5883,7 +5882,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5899,7 +5898,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5915,7 +5914,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="41"/>
       <c r="B137" s="15"/>
       <c r="C137" s="42"/>
@@ -5933,28 +5932,28 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="88" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="83" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
@@ -5972,34 +5971,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K76"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A16" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A16" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -6011,16 +6010,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6031,16 +6030,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6051,18 +6050,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6070,7 +6069,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6083,24 +6082,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6135,7 +6134,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6159,7 +6158,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6181,7 +6180,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6203,7 +6202,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43160</v>
       </c>
@@ -6227,7 +6226,7 @@
         <v>43175</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43191</v>
       </c>
@@ -6249,7 +6248,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43405</v>
       </c>
@@ -6273,7 +6272,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
         <v>54</v>
       </c>
@@ -6291,7 +6290,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43466</v>
       </c>
@@ -6315,7 +6314,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43497</v>
       </c>
@@ -6339,7 +6338,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43647</v>
       </c>
@@ -6363,7 +6362,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
         <v>67</v>
       </c>
@@ -6381,7 +6380,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43831</v>
       </c>
@@ -6405,7 +6404,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>51</v>
@@ -6427,7 +6426,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43862</v>
       </c>
@@ -6449,7 +6448,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>60</v>
@@ -6471,7 +6470,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43983</v>
       </c>
@@ -6495,7 +6494,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>44013</v>
       </c>
@@ -6519,7 +6518,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>44057</v>
       </c>
@@ -6539,7 +6538,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>44064</v>
       </c>
@@ -6563,7 +6562,7 @@
         <v>44069</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>44105</v>
       </c>
@@ -6587,7 +6586,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>75</v>
@@ -6607,7 +6606,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>44</v>
@@ -6629,7 +6628,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>51</v>
@@ -6651,7 +6650,7 @@
         <v>44025</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
         <v>82</v>
       </c>
@@ -6669,7 +6668,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>44805</v>
       </c>
@@ -6693,7 +6692,7 @@
         <v>44832</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>44835</v>
       </c>
@@ -6717,7 +6716,7 @@
         <v>44853</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6733,7 +6732,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6749,7 +6748,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6765,7 +6764,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6781,7 +6780,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6797,7 +6796,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6813,7 +6812,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6829,7 +6828,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6845,7 +6844,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6861,7 +6860,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6877,7 +6876,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6893,7 +6892,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6909,7 +6908,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6925,7 +6924,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6941,7 +6940,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6957,7 +6956,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6973,7 +6972,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6989,7 +6988,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -7005,7 +7004,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -7021,7 +7020,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -7037,7 +7036,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -7053,7 +7052,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -7069,7 +7068,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -7085,7 +7084,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7101,7 +7100,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7117,7 +7116,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7133,7 +7132,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7149,7 +7148,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7165,7 +7164,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7181,7 +7180,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7197,7 +7196,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7213,7 +7212,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7229,7 +7228,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7245,7 +7244,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7261,7 +7260,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7277,7 +7276,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7293,7 +7292,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7309,7 +7308,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7325,7 +7324,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7341,7 +7340,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7357,7 +7356,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7373,7 +7372,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="41"/>
       <c r="B76" s="15"/>
       <c r="C76" s="42"/>
@@ -7404,10 +7403,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7430,28 +7429,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -7464,7 +7463,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7493,7 +7492,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>15.625</v>
       </c>
@@ -7521,17 +7520,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7552,7 +7551,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7579,7 +7578,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7605,7 +7604,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7631,7 +7630,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7657,7 +7656,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7683,7 +7682,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7709,7 +7708,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7735,7 +7734,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7761,7 +7760,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7781,7 +7780,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7801,7 +7800,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7821,7 +7820,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7842,7 +7841,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7863,7 +7862,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7884,7 +7883,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7905,7 +7904,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7926,7 +7925,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7947,7 +7946,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7968,7 +7967,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7989,7 +7988,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8010,7 +8009,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8031,7 +8030,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8052,7 +8051,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8073,7 +8072,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8094,7 +8093,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8115,7 +8114,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8136,7 +8135,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8157,7 +8156,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8178,7 +8177,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8199,7 +8198,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8220,7 +8219,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8241,7 +8240,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8250,7 +8249,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8259,7 +8258,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8268,7 +8267,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8277,7 +8276,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8286,7 +8285,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8295,7 +8294,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8304,7 +8303,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8313,7 +8312,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8322,7 +8321,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8331,7 +8330,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8340,7 +8339,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8349,7 +8348,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8358,7 +8357,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8367,7 +8366,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8376,7 +8375,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8385,7 +8384,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8394,7 +8393,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8403,7 +8402,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8412,7 +8411,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8421,7 +8420,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8430,7 +8429,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8439,7 +8438,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8448,7 +8447,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8457,7 +8456,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8466,7 +8465,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8475,7 +8474,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8484,7 +8483,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8493,7 +8492,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8502,7 +8501,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/CASUAL/LA SP-VMO/DE SAGUN, NANCY.xlsx
+++ b/CASUAL/LA SP-VMO/DE SAGUN, NANCY.xlsx
@@ -27,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="105">
   <si>
     <t>PERIOD</t>
   </si>
@@ -339,34 +339,13 @@
     <t>UT(0-1-52)</t>
   </si>
   <si>
-    <t>A(1-0-0)</t>
-  </si>
-  <si>
     <t>UT(0-1-17)</t>
   </si>
   <si>
-    <t>A(2-0-0)</t>
-  </si>
-  <si>
-    <t>6/23,24/2022</t>
-  </si>
-  <si>
     <t>UT(0-4-27)</t>
   </si>
   <si>
     <t>UT(0-0-15)</t>
-  </si>
-  <si>
-    <t>A(19-0-0)</t>
-  </si>
-  <si>
-    <t>4/1,4-8,11-13,18-22,25-29/2022</t>
-  </si>
-  <si>
-    <t>A(4-0-0)</t>
-  </si>
-  <si>
-    <t>5/2,4-6/2022</t>
   </si>
   <si>
     <t>UT(0-2-50)</t>
@@ -757,17 +736,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -777,6 +753,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1307,7 +1286,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1329,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1414,7 +1393,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1474,7 +1453,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1540,7 +1519,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1603,7 +1582,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1701,7 +1680,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1760,7 +1739,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1825,7 +1804,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1868,7 +1847,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1943,7 +1922,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2129,7 +2108,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2195,7 +2174,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2253,7 +2232,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2319,7 +2298,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2375,7 +2354,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2450,7 +2429,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2493,7 +2472,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2559,7 +2538,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2615,7 +2594,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3091,9 +3070,9 @@
   <dimension ref="A2:M137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A65" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A68" activePane="bottomLeft"/>
       <selection activeCell="M9" sqref="M9"/>
-      <selection pane="bottomLeft" activeCell="O68" sqref="O68"/>
+      <selection pane="bottomLeft" activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3123,14 +3102,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3141,14 +3120,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3161,16 +3140,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3196,18 +3175,18 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -3254,7 +3233,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>10.456000000000017</v>
+        <v>36.456000000000017</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3305,7 +3284,7 @@
       <c r="D11" s="39"/>
       <c r="E11" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>26.081000000000017</v>
+        <v>52.081000000000017</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="13">
@@ -4636,7 +4615,7 @@
         <v>44621</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C73" s="13">
         <v>1.25</v>
@@ -4659,15 +4638,11 @@
       <c r="A74" s="40">
         <v>44652</v>
       </c>
-      <c r="B74" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="B74" s="20"/>
       <c r="C74" s="13">
         <v>1.25</v>
       </c>
-      <c r="D74" s="39">
-        <v>19</v>
-      </c>
+      <c r="D74" s="39"/>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
       <c r="G74" s="13">
@@ -4677,23 +4652,17 @@
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="20" t="s">
-        <v>107</v>
-      </c>
+      <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44682</v>
       </c>
-      <c r="B75" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="B75" s="20"/>
       <c r="C75" s="13">
         <v>1.25</v>
       </c>
-      <c r="D75" s="39">
-        <v>4</v>
-      </c>
+      <c r="D75" s="39"/>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
       <c r="G75" s="13">
@@ -4703,14 +4672,12 @@
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="20" t="s">
-        <v>109</v>
-      </c>
+      <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="39">
@@ -4731,15 +4698,11 @@
       <c r="A77" s="40">
         <v>44713</v>
       </c>
-      <c r="B77" s="20" t="s">
-        <v>102</v>
-      </c>
+      <c r="B77" s="20"/>
       <c r="C77" s="13">
         <v>1.25</v>
       </c>
-      <c r="D77" s="39">
-        <v>2</v>
-      </c>
+      <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
       <c r="G77" s="13">
@@ -4749,14 +4712,12 @@
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="20" t="s">
-        <v>103</v>
-      </c>
+      <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="39">
@@ -4777,15 +4738,11 @@
       <c r="A79" s="40">
         <v>44743</v>
       </c>
-      <c r="B79" s="20" t="s">
-        <v>100</v>
-      </c>
+      <c r="B79" s="20"/>
       <c r="C79" s="13">
         <v>1.25</v>
       </c>
-      <c r="D79" s="39">
-        <v>1</v>
-      </c>
+      <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
       <c r="G79" s="13">
@@ -4795,14 +4752,12 @@
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="49">
-        <v>44755</v>
-      </c>
+      <c r="K79" s="49"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="39">
@@ -4977,9 +4932,7 @@
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="49">
-        <v>44908</v>
-      </c>
+      <c r="K87" s="49"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
@@ -5423,7 +5376,7 @@
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
       <c r="K106" s="20" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -5932,17 +5885,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -6010,14 +5963,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -6030,14 +5983,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6050,16 +6003,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6085,18 +6038,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/CASUAL/LA SP-VMO/DE SAGUN, NANCY.xlsx
+++ b/CASUAL/LA SP-VMO/DE SAGUN, NANCY.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="106">
   <si>
     <t>PERIOD</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>12/6,19,21,22,29/2023</t>
+  </si>
+  <si>
+    <t>02/05,06/2024</t>
   </si>
 </sst>
 </file>
@@ -736,14 +739,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -753,9 +759,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1286,7 +1289,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1329,7 +1332,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1393,7 +1396,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1453,7 +1456,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1519,7 +1522,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1582,7 +1585,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1680,7 +1683,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1739,7 +1742,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1804,7 +1807,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1847,7 +1850,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1922,7 +1925,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2108,7 +2111,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2174,7 +2177,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2232,7 +2235,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2298,7 +2301,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2354,7 +2357,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2429,7 +2432,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,7 +2475,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2538,7 +2541,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2594,7 +2597,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3070,9 +3073,9 @@
   <dimension ref="A2:M137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A68" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A89" activePane="bottomLeft"/>
       <selection activeCell="M9" sqref="M9"/>
-      <selection pane="bottomLeft" activeCell="K87" sqref="K87"/>
+      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3102,14 +3105,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3120,14 +3123,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3140,16 +3143,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3175,18 +3178,18 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -3233,7 +3236,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>36.456000000000017</v>
+        <v>37.706000000000017</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3243,7 +3246,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>46.709000000000003</v>
+        <v>45.959000000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3284,7 +3287,7 @@
       <c r="D11" s="39"/>
       <c r="E11" s="9">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>52.081000000000017</v>
+        <v>53.331000000000017</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="13">
@@ -5421,19 +5424,27 @@
         <f>EDATE(A106,1)</f>
         <v>45292</v>
       </c>
-      <c r="B109" s="20"/>
-      <c r="C109" s="13"/>
+      <c r="B109" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C109" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D109" s="39"/>
       <c r="E109" s="9"/>
       <c r="F109" s="20"/>
-      <c r="G109" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H109" s="39"/>
+      <c r="G109" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H109" s="39">
+        <v>2</v>
+      </c>
       <c r="I109" s="9"/>
       <c r="J109" s="11"/>
-      <c r="K109" s="20"/>
+      <c r="K109" s="20" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
@@ -5885,17 +5896,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5963,14 +5974,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5983,14 +5994,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6003,16 +6014,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6038,18 +6049,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
